--- a/modelagem/Resultados_2018 1ª abordagem/11. Novembro/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/11. Novembro/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,13 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.757489779094663</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.979380807632896</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.302710605264231</v>
+        <v>0.1151927482292876</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.256672144278871</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.616832404555868</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.958693804824532</v>
+        <v>0.0464123528176517</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.175010684378904</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.66077495895244</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.90654932476157</v>
+        <v>0.1581305727187485</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.394271234931251</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.58996482398525</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.757562951669098</v>
+        <v>0.133679876882991</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.018676476967879</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.382881428518495</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.725631331252094</v>
+        <v>0.1336707490256498</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7614925751407022</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5430332694238381</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7393658869150415</v>
+        <v>0.1445019594146946</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.155565968202277</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.086633333028298</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.876245367765643</v>
+        <v>0.05582874353358134</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.70254964492258</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.45890540551639</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.95126529590052</v>
+        <v>0.1977330070577806</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.34426793850765</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.826592990892647</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.59014737408569</v>
+        <v>0.08231833739673165</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.857719020276805</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.784378323425998</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.888796570933206</v>
+        <v>0.1575114658046606</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.866024690171325</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.649729583253899</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.574475543410433</v>
+        <v>0.06218381253917242</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5501321454837167</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4671402222932425</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.502987604125553</v>
+        <v>0.1170978086275959</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.636307030405175</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.341996618295004</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.453356180512491</v>
+        <v>0.1642269854045594</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3686287011574132</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.336346983633582</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4713351704498051</v>
+        <v>0.1888580533273749</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.730120954476334</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8107698098021539</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.84854084558715</v>
+        <v>0.1328453197811172</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.144846710128585</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.086386362180441</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.638745853188584</v>
+        <v>0.1349539499378219</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.281962010856146</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7506784651249369</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.036125114226432</v>
+        <v>0.1527372799672251</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.878430452678678</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.698995258544946</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.9867169489873</v>
+        <v>0.1795022957100787</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8593810472822799</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.09259466701787</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.039580036912235</v>
+        <v>0.1591884230675259</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.413131722199284</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.146590015345964</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.839947422028019</v>
+        <v>0.1869932541388856</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8426934441859172</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.099354572969594</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8489759516932581</v>
+        <v>0.02782145503968931</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.813897467593574</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9432903526571865</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.526355237358073</v>
+        <v>0.2100123920519444</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.063754092643558</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.586766840011443</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.750596044844069</v>
+        <v>0.1877326164163552</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247750190519533.9</v>
-      </c>
-      <c r="C25" t="n">
-        <v>120490723494495.9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>622631166520840.6</v>
+        <v>0.07422481775089558</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.00006949358304</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.037231271932409</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.427748867721556</v>
+        <v>0.1469949058879271</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.167059088641434</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.7702837293681231</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.222858106465495</v>
+        <v>0.1690601179808977</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6391770287014054</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.7291663764913652</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.129053357111684</v>
+        <v>0.1535624977559444</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.7751937471622867</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.7039851329655384</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.045625343417127</v>
+        <v>0.07866982174435891</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.412917414553149</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.206519925391822</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.860621128414122</v>
+        <v>0.02779021473295246</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.74963752444176</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10.68363949718775</v>
-      </c>
-      <c r="D31" t="n">
-        <v>15.49535765727154</v>
+        <v>0.128385885727908</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.002294730426562</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.025003477620375</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.112767255695374</v>
+        <v>0.170390691458717</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.340794329449094</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.643640307133936</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2.142210505735059</v>
+        <v>0.1338263861277433</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.252802005467794</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.273809423799154</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.867159808778711</v>
+        <v>0.1340444013683107</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.393850946644816</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.025233280661263</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.572382499821011</v>
+        <v>0.1587771348865882</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5739696319623382</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.6516918986721535</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.7778936652566866</v>
+        <v>0.144434868643477</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.39734655992769</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7.795908186813873</v>
-      </c>
-      <c r="D37" t="n">
-        <v>8.62554714786973</v>
+        <v>0.1766852842954385</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.145916831513705</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.325437468804672</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1.567759846080466</v>
+        <v>0.1092559547339094</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.421226836880487</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.335343521016801</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.889912226814784</v>
+        <v>0.1995744194380077</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.960256098857418</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.693754602102896</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.340771300509031</v>
+        <v>0.1531156949521229</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.316660538192195</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.288103625317916</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.945538498028854</v>
+        <v>0.1232275464289724</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9416610579239422</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.7720862748766122</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.12222498838958</v>
+        <v>0.10431811553451</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7906218131195167</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5641895279445902</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.9516508529568163</v>
+        <v>0.1747383191642229</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9051025696720305</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.9074336349466342</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9822648690997612</v>
+        <v>0.1805871017206109</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.176131597512254</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.083163349338878</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.754876920781445</v>
+        <v>0.157500123397202</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8520205097073782</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.9346638383297641</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.8215557995005867</v>
+        <v>0.06432635424091387</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.714129927228937</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.516433252000565</v>
-      </c>
-      <c r="D47" t="n">
-        <v>8.481224274349419</v>
+        <v>0.1804271129285039</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.897472291619708</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.361946355498646</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.02471242210766</v>
+        <v>0.1195830376542851</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.7242979393559417</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.7664031061050561</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5778885868762142</v>
+        <v>0.09086352108133175</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8594475953687178</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.9013672793349909</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.94519023970589</v>
+        <v>0.1093008882185348</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.424802723100578</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.425951122019903</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2.001602593102572</v>
+        <v>0.02129147127001253</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.309249183754391</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.40485494242883</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.009199822057836</v>
+        <v>0.1331303521239469</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.236163637431611</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2.154620827106999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.287881019583709</v>
+        <v>0.1264747155851795</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.282775535086481</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.768988927539504</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.088252568509435</v>
+        <v>0.1760516001522134</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.985819301346628</v>
-      </c>
-      <c r="C55" t="n">
-        <v>33.90084111260652</v>
-      </c>
-      <c r="D55" t="n">
-        <v>28.90599312493842</v>
+        <v>0.2126135622160622</v>
       </c>
     </row>
   </sheetData>
